--- a/biology/Médecine/Valvule_de_la_veine_cave_inférieure/Valvule_de_la_veine_cave_inférieure.xlsx
+++ b/biology/Médecine/Valvule_de_la_veine_cave_inférieure/Valvule_de_la_veine_cave_inférieure.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Valvule_de_la_veine_cave_inf%C3%A9rieure</t>
+          <t>Valvule_de_la_veine_cave_inférieure</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La valvule de la veine cave inférieure (anciennement valvule d'Eustachi) parfois désignée sous le nom de valve de la veine cave inférieure ou encore valve d'Eustachi est un repli musculeux qui entoure l'orifice de la veine cave inférieure à son abouchement dans l'oreillette droite du cœur. C'est un reliquat embryonnaire qui évolue en un simple repli non fonctionnel. Chez le fœtus, elle dirige le flux veineux vers le foramen ovale.
 Elle tient son nom de Bartolomeo Eustachi ou Eustachio, anatomiste italien du XV ou XVIe siècle qui mit en évidence son existence lors de ses nombreux travaux.
